--- a/migrationplaces.xlsx
+++ b/migrationplaces.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\Williams\Data Assistance\mnmigration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\User\Williams\Data\mnmigration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -530,10 +530,10 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>MIGPLAC1</t>
-  </si>
-  <si>
-    <t>Place</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>statename</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
   <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
